--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -108,18 +108,6 @@
     <t>0,90,0</t>
   </si>
   <si>
-    <t>#|1001,238.97,3.71,448.75,-121.5,1,2
-			|1001,234.82,3.71,440.8,-45,1,2
-			#|1001,293.41,1.06,417.64,-72.8,2,2
-			|1001,294.61,1.06,429.47,-117.4,2,2
-			|1001,302.51,1.06,418.59,-96.3,2,2
-			#|1001,320.24,0.94,471.81,100.46,3,2
-			|1001,310.63,0.94,461.05,76.8,3,2
-			|1001,335.1,0.232,479.08,-188.5,3,2
-			|1001,313.65,1.29,470.91,88.04,3,2
-			|2001,330.13,0.79,480.48,145.21,1,2</t>
-  </si>
-  <si>
     <t>##var</t>
   </si>
   <si>
@@ -130,6 +118,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>#|1001,238.97,3.71,448.75,-121.5,1,2			|1001,234.82,3.71,440.8,-45,1,2			#|1001,293.41,1.06,417.64,-72.8,2,2			|1001,294.61,1.06,429.47,-117.4,2,2			|1001,302.51,1.06,418.59,-96.3,2,2			#|1001,320.24,0.94,471.81,100.46,3,2			|1001,310.63,0.94,461.05,76.8,3,2			|1001,335.1,0.232,479.08,-188.5,3,2			|1001,313.65,1.29,470.91,88.04,3,2			|2001,330.13,0.79,480.48,145.21,1,2</t>
+  </si>
+  <si>
+    <t>#|1001,238.97,3.71,448.75,-121.5,1,2   |1001,234.82,3.71,440.8,-45,1,2   #|1001,293.41,1.06,417.64,-72.8,2,2   |1001,294.61,1.06,429.47,-117.4,2,2   |1001,302.51,1.06,418.59,-96.3,2,2   #|1001,320.24,0.94,471.81,100.46,3,2   |1001,310.63,0.94,461.05,76.8,3,2   |1001,335.1,0.232,479.08,-188.5,3,2   |1001,313.65,1.29,470.91,88.04,3,2   |2001,330.13,0.79,480.48,145.21,1,2</t>
   </si>
 </sst>
 </file>
@@ -566,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +575,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
@@ -589,54 +583,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10001</v>
       </c>
@@ -755,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>1250</v>
@@ -767,7 +761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10002</v>
       </c>
@@ -799,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>1350</v>
@@ -811,7 +805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>10003</v>
       </c>
@@ -843,7 +837,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M6">
         <v>1450</v>
@@ -855,7 +849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10004</v>
       </c>
@@ -887,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M7">
         <v>1550</v>
@@ -899,7 +893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10005</v>
       </c>
@@ -931,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M8">
         <v>1650</v>
@@ -943,7 +937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10006</v>
       </c>
@@ -975,7 +969,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M9">
         <v>1750</v>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>#|1001,238.97,3.71,448.75,-121.5,1,2   |1001,234.82,3.71,440.8,-45,1,2   #|1001,293.41,1.06,417.64,-72.8,2,2   |1001,294.61,1.06,429.47,-117.4,2,2   |1001,302.51,1.06,418.59,-96.3,2,2   #|1001,320.24,0.94,471.81,100.46,3,2   |1001,310.63,0.94,461.05,76.8,3,2   |1001,335.1,0.232,479.08,-188.5,3,2   |1001,313.65,1.29,470.91,88.04,3,2   |2001,330.13,0.79,480.48,145.21,1,2</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -221,8 +224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:O9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:O9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:O10" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:O10"/>
   <tableColumns count="14">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,102 +633,65 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>10000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -734,36 +700,34 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -793,21 +757,21 @@
         <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="N5">
-        <v>1080</v>
+        <v>980</v>
       </c>
       <c r="O5">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -840,18 +804,18 @@
         <v>33</v>
       </c>
       <c r="M6">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N6">
-        <v>1180</v>
+        <v>1080</v>
       </c>
       <c r="O6">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -884,18 +848,18 @@
         <v>33</v>
       </c>
       <c r="M7">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N7">
-        <v>1280</v>
+        <v>1180</v>
       </c>
       <c r="O7">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -928,18 +892,18 @@
         <v>33</v>
       </c>
       <c r="M8">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="N8">
-        <v>1380</v>
+        <v>1280</v>
       </c>
       <c r="O8">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -972,12 +936,56 @@
         <v>33</v>
       </c>
       <c r="M9">
+        <v>1650</v>
+      </c>
+      <c r="N9">
+        <v>1380</v>
+      </c>
+      <c r="O9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10">
         <v>1750</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>1480</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>98</v>
       </c>
     </row>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>##group</t>
+  </si>
+  <si>
+    <t>vec3</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,16 +610,16 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>31</v>

--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#map.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -120,16 +120,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>#|1001,238.97,3.71,448.75,-121.5,1,2			|1001,234.82,3.71,440.8,-45,1,2			#|1001,293.41,1.06,417.64,-72.8,2,2			|1001,294.61,1.06,429.47,-117.4,2,2			|1001,302.51,1.06,418.59,-96.3,2,2			#|1001,320.24,0.94,471.81,100.46,3,2			|1001,310.63,0.94,461.05,76.8,3,2			|1001,335.1,0.232,479.08,-188.5,3,2			|1001,313.65,1.29,470.91,88.04,3,2			|2001,330.13,0.79,480.48,145.21,1,2</t>
-  </si>
-  <si>
-    <t>#|1001,238.97,3.71,448.75,-121.5,1,2   |1001,234.82,3.71,440.8,-45,1,2   #|1001,293.41,1.06,417.64,-72.8,2,2   |1001,294.61,1.06,429.47,-117.4,2,2   |1001,302.51,1.06,418.59,-96.3,2,2   #|1001,320.24,0.94,471.81,100.46,3,2   |1001,310.63,0.94,461.05,76.8,3,2   |1001,335.1,0.232,479.08,-188.5,3,2   |1001,313.65,1.29,470.91,88.04,3,2   |2001,330.13,0.79,480.48,145.21,1,2</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
     <t>vec3</t>
+  </si>
+  <si>
+    <t>#|1001,238.97,3.71,448.75,-121.5,1,2
+   |1001,234.82,3.71,440.8,-45,1,2
+   #|1001,293.41,1.06,417.64,-72.8,2,2
+   |1001,294.61,1.06,429.47,-117.4,2,2
+   |1001,302.51,1.06,418.59,-96.3,2,2
+   #|1001,320.24,0.94,471.81,100.46,3,2
+   |1001,310.63,0.94,461.05,76.8,3,2
+   |1001,335.1,0.232,479.08,-188.5,3,2
+   |1001,313.65,1.29,470.91,88.04,3,2
+   |2001,330.13,0.79,480.48,145.21,1,2</t>
   </si>
 </sst>
 </file>
@@ -566,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,16 +616,16 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
         <v>31</v>
@@ -636,7 +642,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -760,7 +766,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>1250</v>
@@ -804,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>1350</v>
@@ -848,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>1450</v>
@@ -892,7 +898,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>1550</v>
@@ -936,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
         <v>1650</v>
@@ -980,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>1750</v>
